--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjust\Desktop\Universidad\4o\Semestre 2\[DAD] Desarrollo de aplicaciones distribuidas\Práctica\GamePost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A1066-CEE2-4FE6-BE99-2EE386A5A144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F96A5F-133C-40D4-A7F5-C8C1536DFADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="9" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1246,7 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjust\Desktop\Universidad\4o\Semestre 2\[DAD] Desarrollo de aplicaciones distribuidas\Práctica\GamePost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F96A5F-133C-40D4-A7F5-C8C1536DFADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0205B47F-373F-43CD-B257-6B8D502ED4A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -289,6 +289,21 @@
   </si>
   <si>
     <t>CustomList</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>new Content(</t>
+  </si>
+  <si>
+    <t>userRepository.save(new User(username, password));</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>INSERT INTO User VALUES(username, password)</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1081,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,8 +1111,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1246,8 +1265,8 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,6 +1277,7 @@
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1303,8 +1323,12 @@
         <v>68</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
@@ -1338,7 +1362,10 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="str">
+        <f>CONCATENATE("userRepository.save(new User(",C3,", ",D3,"));")</f>
+        <v>userRepository.save(new User(Julen, julen));</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
@@ -1372,7 +1399,10 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="str">
+        <f>CONCATENATE("userRepository.save(new User(",C4,", ",D4,"));")</f>
+        <v>userRepository.save(new User(Mariam, mariam));</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
@@ -1419,8 +1449,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
@@ -1436,7 +1470,10 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="str">
+        <f>CONCATENATE("INSERT INTO User VALUES(",C3,", ",D3,")")</f>
+        <v>INSERT INTO User VALUES(Julen, julen)</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
@@ -1452,7 +1489,10 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="str">
+        <f>CONCATENATE("INSERT INTO User VALUES(",C4,", ",D4,")")</f>
+        <v>INSERT INTO User VALUES(Mariam, mariam)</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjust\Desktop\Universidad\4o\Semestre 2\[DAD] Desarrollo de aplicaciones distribuidas\Práctica\GamePost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0205B47F-373F-43CD-B257-6B8D502ED4A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81203A77-398F-4470-9312-3C410D132FBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -294,9 +294,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>new Content(</t>
-  </si>
-  <si>
     <t>userRepository.save(new User(username, password));</t>
   </si>
   <si>
@@ -304,6 +301,18 @@
   </si>
   <si>
     <t>INSERT INTO User VALUES(username, password)</t>
+  </si>
+  <si>
+    <t>contentRepository.save(new Content("text", null));</t>
+  </si>
+  <si>
+    <t>commentRepository.save(new Comment(title, author, content, parent));</t>
+  </si>
+  <si>
+    <t>El método deberá proporcionar el id del usuario, id del parent si lo hay, el id del content generado y el forumEntry al que está asociado</t>
+  </si>
+  <si>
+    <t>notificationRepository.save(new Notification(title, origin));</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,6 +424,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -424,31 +436,31 @@
   </cellStyles>
   <dxfs count="73">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -657,118 +669,118 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BF43DB4-6508-4FA8-8C4E-2108D62DF6EF}" name="Tabla9" displayName="Tabla9" ref="B2:D9" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BF43DB4-6508-4FA8-8C4E-2108D62DF6EF}" name="Tabla9" displayName="Tabla9" ref="B2:D9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="B2:D9" xr:uid="{05F2118B-2A07-4206-8BF9-9DC1AEC6DFFD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{14ACFE27-9454-4B62-BD8E-9B42AD228AFC}" name="id" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{DEEACF81-03F0-47E2-A2DA-CEC5AEFAAECD}" name="text" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{C99E0F22-A941-4BB6-9293-C0BFF626DF8D}" name="media" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{14ACFE27-9454-4B62-BD8E-9B42AD228AFC}" name="id" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{DEEACF81-03F0-47E2-A2DA-CEC5AEFAAECD}" name="text" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{C99E0F22-A941-4BB6-9293-C0BFF626DF8D}" name="media" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EE32D89-D5F8-4BAD-A5A9-CC4302E2E6E1}" name="Tabla1" displayName="Tabla1" ref="B2:I4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EE32D89-D5F8-4BAD-A5A9-CC4302E2E6E1}" name="Tabla1" displayName="Tabla1" ref="B2:I4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B2:I4" xr:uid="{708869D5-6F1A-406E-80CF-8963F263AF04}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4142E6FE-0D4E-4065-A3B5-8B1012C956D0}" name="id" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{4400171B-B491-46AD-968F-6282F7E767B0}" name="name" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{4BB5D958-7840-4813-B608-5ECF46195CAA}" name="password" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{7F1C4432-E4D5-4384-8CE6-576B828FD876}" name="forumEntries" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{4142E6FE-0D4E-4065-A3B5-8B1012C956D0}" name="id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{4400171B-B491-46AD-968F-6282F7E767B0}" name="name" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{4BB5D958-7840-4813-B608-5ECF46195CAA}" name="password" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{7F1C4432-E4D5-4384-8CE6-576B828FD876}" name="forumEntries" dataDxfId="29">
       <calculatedColumnFormula>Tabla3[[#This Row],[id]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00ECC01B-D47B-49E7-93DC-98F932DF1D50}" name="comments" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{00ECC01B-D47B-49E7-93DC-98F932DF1D50}" name="comments" dataDxfId="8">
       <calculatedColumnFormula>CustomList!B5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{579D7FF1-524E-490F-A2E2-7A8C2ACD32CF}" name="games" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{579D7FF1-524E-490F-A2E2-7A8C2ACD32CF}" name="games" dataDxfId="28">
       <calculatedColumnFormula>CustomList!B7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{38A79DA5-DE16-428D-BC61-F053A040D896}" name="myLists" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{38A79DA5-DE16-428D-BC61-F053A040D896}" name="myLists" dataDxfId="27">
       <calculatedColumnFormula>CustomList!B9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F6CB513D-6FE8-435A-BC96-64D98C3A0397}" name="notifications (1:M)" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{F6CB513D-6FE8-435A-BC96-64D98C3A0397}" name="notifications (1:M)" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{03CB801E-F992-405D-A1C7-054FA7C6BC98}" name="Tabla8" displayName="Tabla8" ref="B2:G7" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{03CB801E-F992-405D-A1C7-054FA7C6BC98}" name="Tabla8" displayName="Tabla8" ref="B2:G7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B2:G7" xr:uid="{C2384BA1-B94D-4432-8904-EB4A00A153D3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{38E05702-EE15-499C-A7A8-9F5F698A2401}" name="id" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{AEA9E773-E4F8-4657-B2E0-1812517741FD}" name="title" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{D8B4001E-48A0-4846-A266-B641D23ACB57}" name="author" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{347F469B-621D-4B42-A6CD-2FA0024E7FD5}" name="parent" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{B4FAADFE-1802-4FCC-AB4B-246944DA4476}" name="content" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{38E05702-EE15-499C-A7A8-9F5F698A2401}" name="id" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AEA9E773-E4F8-4657-B2E0-1812517741FD}" name="title" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D8B4001E-48A0-4846-A266-B641D23ACB57}" name="author" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{347F469B-621D-4B42-A6CD-2FA0024E7FD5}" name="parent" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B4FAADFE-1802-4FCC-AB4B-246944DA4476}" name="content" dataDxfId="1">
       <calculatedColumnFormula>Content!B5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BC4E1BFD-ACC3-4C1C-AF5A-DD512CBFA703}" name="forumEntry (dependency)" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{BC4E1BFD-ACC3-4C1C-AF5A-DD512CBFA703}" name="forumEntry (dependency)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D983C2E2-E337-4ED1-9C04-43B62F7226A9}" name="Tabla7" displayName="Tabla7" ref="B2:J4" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D983C2E2-E337-4ED1-9C04-43B62F7226A9}" name="Tabla7" displayName="Tabla7" ref="B2:J4" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="B2:J4" xr:uid="{039321FD-D4EB-41FB-B2C7-5937D5E8123A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F921FAD8-D2BA-499B-BC4C-2BF0F2F45881}" name="id" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{E50A045D-5084-4DBC-A652-87CCD3BA6C70}" name="title" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{514AB175-1398-4881-9701-59724B8DBBD6}" name="author" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{F921FAD8-D2BA-499B-BC4C-2BF0F2F45881}" name="id" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{E50A045D-5084-4DBC-A652-87CCD3BA6C70}" name="title" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{514AB175-1398-4881-9701-59724B8DBBD6}" name="author" dataDxfId="59">
       <calculatedColumnFormula>Tabla1[[#This Row],[id]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4D9091E5-6C82-4707-9A1F-9D985AF2468B}" name="createdOn" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{E72F0F4B-9E6F-4C97-8503-4FF4905F3B48}" name="lastUpdatedOn" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{69F1DEBC-CB89-4B9C-B763-E8F5F04FFFCC}" name="votes" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{9340E802-9E5D-459F-8FAC-C6BCC771901B}" name="content" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{4D9091E5-6C82-4707-9A1F-9D985AF2468B}" name="createdOn" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{E72F0F4B-9E6F-4C97-8503-4FF4905F3B48}" name="lastUpdatedOn" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{69F1DEBC-CB89-4B9C-B763-E8F5F04FFFCC}" name="votes" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{9340E802-9E5D-459F-8FAC-C6BCC771901B}" name="content" dataDxfId="9">
       <calculatedColumnFormula>Tabla9[[#This Row],[id]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BECC1A05-1EB6-4A9D-82A5-5DA60441A960}" name="comments (1:M)" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{BE4C816E-DE99-4BFF-83D4-3237CA104222}" name="Forum (dependency)" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{BECC1A05-1EB6-4A9D-82A5-5DA60441A960}" name="comments (1:M)" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{BE4C816E-DE99-4BFF-83D4-3237CA104222}" name="Forum (dependency)" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CD63BC2-2AA2-41B8-BFEA-ECC77A8DDCD3}" name="Tabla6" displayName="Tabla6" ref="B2:C4" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CD63BC2-2AA2-41B8-BFEA-ECC77A8DDCD3}" name="Tabla6" displayName="Tabla6" ref="B2:C4" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="B2:C4" xr:uid="{A531C92D-5BA2-4C27-983E-28D6B40AE42D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A05BDDE4-C3F2-4E87-B5CD-106FA7D08A03}" name="id" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{8109723E-EDD8-435F-A054-8F6FAAAFC31E}" name="forumEntries (1:M)" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{A05BDDE4-C3F2-4E87-B5CD-106FA7D08A03}" name="id" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{8109723E-EDD8-435F-A054-8F6FAAAFC31E}" name="forumEntries (1:M)" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EDDDD6F1-F482-4EE7-AF47-ABE5363A7AC4}" name="Tabla5" displayName="Tabla5" ref="B2:J4" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EDDDD6F1-F482-4EE7-AF47-ABE5363A7AC4}" name="Tabla5" displayName="Tabla5" ref="B2:J4" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B2:J4" xr:uid="{001C9BFA-C593-45E4-8973-20B89FD13A2A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0AE8779D-B8B4-4CBE-BC57-314A6E01BAB3}" name="id" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{A0E9C469-A0AF-46F5-9D77-C27B9493CF14}" name="name" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{C4CD5244-C0EA-433E-BB77-82707DBA7928}" name="genre" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{890A8F04-2A7E-43B2-A7A2-C1D84502A59A}" name="numPlayers" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{D9CD7B65-8D5D-4E86-9E10-DFEFB679A16A}" name="publishedOn" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{30CAA054-DFEE-4A50-8FEB-172BA3BD8EF2}" name="platform" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{F5D82578-979E-4CAF-9CF9-78FB4FC927A6}" name="developer" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{4F1952D6-3C87-40B2-A07D-397FF133E96A}" name="publisher" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{730BD239-BAE9-426E-8D97-F06D97EAE967}" name="synopsys" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{0AE8779D-B8B4-4CBE-BC57-314A6E01BAB3}" name="id" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{A0E9C469-A0AF-46F5-9D77-C27B9493CF14}" name="name" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{C4CD5244-C0EA-433E-BB77-82707DBA7928}" name="genre" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{890A8F04-2A7E-43B2-A7A2-C1D84502A59A}" name="numPlayers" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{D9CD7B65-8D5D-4E86-9E10-DFEFB679A16A}" name="publishedOn" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{30CAA054-DFEE-4A50-8FEB-172BA3BD8EF2}" name="platform" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{F5D82578-979E-4CAF-9CF9-78FB4FC927A6}" name="developer" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{4F1952D6-3C87-40B2-A07D-397FF133E96A}" name="publisher" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{730BD239-BAE9-426E-8D97-F06D97EAE967}" name="synopsys" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CDAC1581-6C0E-4E2B-A0EC-D7C18CDF07DE}" name="Tabla4" displayName="Tabla4" ref="B2:E4" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CDAC1581-6C0E-4E2B-A0EC-D7C18CDF07DE}" name="Tabla4" displayName="Tabla4" ref="B2:E4" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="B2:E4" xr:uid="{0C4C3956-2C44-4F93-85B4-41604499C272}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98F77529-CCC0-45C9-9B28-12B6E9D91B58}" name="id" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{27B207CB-D04A-4F70-B584-A186ACAFED9A}" name="cover" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{027994E2-460F-49B7-BFE0-15FEA079CA94}" name="description" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{903B8694-B0DA-49B9-BEA1-EFF0977CAD11}" name="forum" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{98F77529-CCC0-45C9-9B28-12B6E9D91B58}" name="id" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{27B207CB-D04A-4F70-B584-A186ACAFED9A}" name="cover" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{027994E2-460F-49B7-BFE0-15FEA079CA94}" name="description" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{903B8694-B0DA-49B9-BEA1-EFF0977CAD11}" name="forum" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -788,26 +800,26 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{57642FAA-7690-4D4E-A729-5F9858456732}" name="Tabla3" displayName="Tabla3" ref="B2:F14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{57642FAA-7690-4D4E-A729-5F9858456732}" name="Tabla3" displayName="Tabla3" ref="B2:F14" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B2:F14" xr:uid="{1C928885-F9D0-4B4A-8F72-CC1E914516E1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BA8D24E4-01B1-4426-8238-EC12F33E4FEE}" name="id" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{FBBFC2FD-C2BA-48EC-A922-2F93B206F66F}" name="name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{C6767E2B-A4A1-4CA2-A754-22AA4CE81EC5}" name="elements (N:M)" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{56E2EB2D-8FE2-47F7-9433-EE5DFF0F0E12}" name="user (dependency)" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B4690E4D-81CC-4BA2-838E-BBDA0BEF9FBE}" name="customList (dependency)" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{BA8D24E4-01B1-4426-8238-EC12F33E4FEE}" name="id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{FBBFC2FD-C2BA-48EC-A922-2F93B206F66F}" name="name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{C6767E2B-A4A1-4CA2-A754-22AA4CE81EC5}" name="elements (N:M)" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{56E2EB2D-8FE2-47F7-9433-EE5DFF0F0E12}" name="user (dependency)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{B4690E4D-81CC-4BA2-838E-BBDA0BEF9FBE}" name="customList (dependency)" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{890A0BE9-9419-49E2-90BE-E5B032ACC34A}" name="Tabla10" displayName="Tabla10" ref="B2:D19" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{890A0BE9-9419-49E2-90BE-E5B032ACC34A}" name="Tabla10" displayName="Tabla10" ref="B2:D19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B2:D19" xr:uid="{9DA3296A-19FF-4863-80B1-74611EC59813}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A8F61F5B-18BA-441E-868B-F8E4E2FF70F4}" name="element" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B861B3A7-FA11-4129-9937-74874DA64E94}" name="customlist" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{302799C8-2E44-473D-A1D3-FE8D7978C9E8}" name="type (needed for automatization)" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{A8F61F5B-18BA-441E-868B-F8E4E2FF70F4}" name="element" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B861B3A7-FA11-4129-9937-74874DA64E94}" name="customlist" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{302799C8-2E44-473D-A1D3-FE8D7978C9E8}" name="type (needed for automatization)" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1082,12 +1094,13 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,8 +1127,8 @@
       <c r="F2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>83</v>
+      <c r="G2" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1131,7 +1144,10 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="8" t="str">
+        <f>CONCATENATE("contentRepository.save(new Content(""",Tabla9[[#This Row],[text]],""", ", Tabla9[[#This Row],[media]], "));")</f>
+        <v>contentRepository.save(new Content("Vaya juegazo", null));</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1146,7 +1162,10 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="8" t="str">
+        <f>CONCATENATE("contentRepository.save(new Content(""",Tabla9[[#This Row],[text]],""", ", Tabla9[[#This Row],[media]], "));")</f>
+        <v>contentRepository.save(new Content("No me gusta", null));</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1161,7 +1180,10 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="8" t="str">
+        <f>CONCATENATE("contentRepository.save(new Content(""",Tabla9[[#This Row],[text]],""", ", Tabla9[[#This Row],[media]], "));")</f>
+        <v>contentRepository.save(new Content("Me encanta", null));</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1176,7 +1198,10 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="8" t="str">
+        <f>CONCATENATE("contentRepository.save(new Content(""",Tabla9[[#This Row],[text]],""", ", Tabla9[[#This Row],[media]], "));")</f>
+        <v>contentRepository.save(new Content("Wow amazing", null));</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1191,7 +1216,10 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="8" t="str">
+        <f>CONCATENATE("contentRepository.save(new Content(""",Tabla9[[#This Row],[text]],""", ", Tabla9[[#This Row],[media]], "));")</f>
+        <v>contentRepository.save(new Content("suka blyat", null));</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1206,7 +1234,10 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="8" t="str">
+        <f>CONCATENATE("contentRepository.save(new Content(""",Tabla9[[#This Row],[text]],""", ", Tabla9[[#This Row],[media]], "));")</f>
+        <v>contentRepository.save(new Content("loooool goty", null));</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1221,7 +1252,10 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="8" t="str">
+        <f>CONCATENATE("contentRepository.save(new Content(""",Tabla9[[#This Row],[text]],""", ", Tabla9[[#This Row],[media]], "));")</f>
+        <v>contentRepository.save(new Content("omg", null));</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1265,8 +1299,8 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1361,7 @@
         <v>82</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1450,10 +1484,10 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1589,10 +1623,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,9 +1634,10 @@
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="124" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1612,8 +1647,11 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1634,9 +1672,14 @@
         <v>62</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>1</v>
@@ -1644,9 +1687,9 @@
       <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1">
-        <f>Tabla1[[#This Row],[id]]</f>
-        <v>1</v>
+      <c r="D3" s="1" t="str">
+        <f>Tabla1[[#This Row],[name]]</f>
+        <v>Julen</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>35</v>
@@ -1659,10 +1702,12 @@
         <f>ForumEntry!B3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2</v>
@@ -1670,9 +1715,9 @@
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1">
-        <f>Tabla1[[#This Row],[id]]</f>
-        <v>2</v>
+      <c r="D4" s="1" t="str">
+        <f>Tabla1[[#This Row],[name]]</f>
+        <v>Mariam</v>
       </c>
       <c r="E4" s="1">
         <f>B3</f>
@@ -1686,10 +1731,12 @@
         <f>ForumEntry!B3</f>
         <v>1</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>3</v>
@@ -1697,9 +1744,9 @@
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1">
-        <f>User!B3</f>
-        <v>1</v>
+      <c r="D5" s="1" t="str">
+        <f>User!C3</f>
+        <v>Julen</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
@@ -1715,7 +1762,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>4</v>
@@ -1723,9 +1770,9 @@
       <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="1">
-        <f>User!B4</f>
-        <v>2</v>
+      <c r="D6" s="1" t="str">
+        <f>User!C4</f>
+        <v>Mariam</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>35</v>
@@ -1741,7 +1788,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>5</v>
@@ -1749,9 +1796,9 @@
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1">
-        <f>User!B3</f>
-        <v>1</v>
+      <c r="D7" s="1" t="str">
+        <f>User!C3</f>
+        <v>Julen</v>
       </c>
       <c r="E7" s="1">
         <f>B6</f>
@@ -1768,7 +1815,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1779,7 +1826,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1790,7 +1837,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1801,7 +1848,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1812,7 +1859,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1840,7 +1887,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,10 +2584,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,9 +2595,10 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="81.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2559,7 +2607,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2574,9 +2622,14 @@
         <v>8</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>1</v>
@@ -2592,8 +2645,12 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f>CONCATENATE("notificationRepository.save(new Notification(""",Tabla2[[#This Row],[title]],"""",", """,Tabla2[[#This Row],[origin]],"""","));")</f>
+        <v>notificationRepository.save(new Notification("Welcome!", "localhost:8080/index"));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2</v>
@@ -2609,8 +2666,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f>CONCATENATE("notificationRepository.save(new Notification(""",Tabla2[[#This Row],[title]],"""",", """,Tabla2[[#This Row],[origin]],"""","));")</f>
+        <v>notificationRepository.save(new Notification("Hello!", "localhost:8080/index"));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2619,7 +2680,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2628,7 +2689,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2637,7 +2698,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2662,7 +2723,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
